--- a/BishoujoAcademy/Resource/src/excle/dialogue.xlsx
+++ b/BishoujoAcademy/Resource/src/excle/dialogue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Test_project\BishoujoAcademy\Resource\excle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Test_project\BishoujoAcademy\Resource\src\excle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -126,55 +126,56 @@
     <t>res://Resource/sound/voice/xx_dialogue_001.mp3</t>
   </si>
   <si>
+    <t>女主2</t>
+  </si>
+  <si>
+    <t>文本101（测试用废话一大堆，测试用废话一大堆）</t>
+  </si>
+  <si>
+    <t>res://Resource/sound/voice/xx_dialogue_002.mp3</t>
+  </si>
+  <si>
+    <t>文本102（选项1）</t>
+  </si>
+  <si>
+    <t>文本103（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
+  </si>
+  <si>
+    <t>1;1</t>
+  </si>
+  <si>
+    <t>文本104（测试用废话一大堆，测试用废话一大堆）</t>
+  </si>
+  <si>
+    <t>文本105（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
+  </si>
+  <si>
+    <t>文本106结束</t>
+  </si>
+  <si>
+    <t>文本107（选项2）</t>
+  </si>
+  <si>
+    <t>文本108（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
+  </si>
+  <si>
+    <t>res://Resource/sound/effect/click_002.mp3</t>
+  </si>
+  <si>
+    <t>2;3</t>
+  </si>
+  <si>
+    <t>文本109（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
+  </si>
+  <si>
+    <t>文本110（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
+  </si>
+  <si>
+    <t>文本111结束</t>
+  </si>
+  <si>
     <t>102;107</t>
-  </si>
-  <si>
-    <t>女主2</t>
-  </si>
-  <si>
-    <t>文本101（测试用废话一大堆，测试用废话一大堆）</t>
-  </si>
-  <si>
-    <t>res://Resource/sound/voice/xx_dialogue_002.mp3</t>
-  </si>
-  <si>
-    <t>文本102（选项1）</t>
-  </si>
-  <si>
-    <t>文本103（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
-  </si>
-  <si>
-    <t>1;1</t>
-  </si>
-  <si>
-    <t>文本104（测试用废话一大堆，测试用废话一大堆）</t>
-  </si>
-  <si>
-    <t>文本105（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
-  </si>
-  <si>
-    <t>文本106结束</t>
-  </si>
-  <si>
-    <t>文本107（选项2）</t>
-  </si>
-  <si>
-    <t>文本108（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
-  </si>
-  <si>
-    <t>res://Resource/sound/effect/click_002.mp3</t>
-  </si>
-  <si>
-    <t>2;3</t>
-  </si>
-  <si>
-    <t>文本109（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
-  </si>
-  <si>
-    <t>文本110（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
-  </si>
-  <si>
-    <t>文本111结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -556,7 +557,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -746,22 +747,22 @@
         <v>101</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="3"/>
@@ -780,7 +781,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -808,16 +809,16 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -831,14 +832,14 @@
         <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -870,12 +871,12 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="3"/>
@@ -891,14 +892,14 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -924,7 +925,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -952,20 +953,20 @@
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="4">
@@ -981,19 +982,19 @@
         <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="3"/>
@@ -1016,7 +1017,7 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1035,19 +1036,19 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
